--- a/OTHER FILES/project table details.xlsx
+++ b/OTHER FILES/project table details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peeyush\projects\schemes\OTHER FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77ED4DC-A324-48A7-84F7-EC851215C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7EA456-3359-48C4-B1EC-7C9062F91C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{89D8D5EB-3FDE-47B1-847B-3BE9DE8916EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89D8D5EB-3FDE-47B1-847B-3BE9DE8916EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>New Case ( April &amp; May 2023) F.Y. 2023-24</t>
   </si>
   <si>
-    <t>PR /10000 ( Till May 2023)-FY 2023-24</t>
-  </si>
-  <si>
     <t>Percentage of G2D among new case</t>
   </si>
   <si>
@@ -557,13 +554,16 @@
   <si>
     <t>National Programme for Health Care 
 for the Elderly (NPHCE)</t>
+  </si>
+  <si>
+    <t>Adoption status of TB patients by Nikshay Mitra Sep 2022 to May 2023+D62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,7 +579,8 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -587,7 +588,15 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -767,10 +776,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -802,19 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,7 +820,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1142,43 +1152,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907CCAE1-8B8A-49B6-B7FE-6B0450647F01}">
   <dimension ref="B2:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="117.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="24"/>
+    <col min="2" max="2" width="32.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="16" style="24" customWidth="1"/>
+    <col min="4" max="4" width="117.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>161</v>
+      <c r="D2" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>139</v>
+      <c r="B3" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1196,7 +1208,7 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="5">
         <v>2</v>
       </c>
@@ -1213,7 +1225,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="5">
         <v>3</v>
       </c>
@@ -1228,7 +1240,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="2"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="5">
         <v>4</v>
       </c>
@@ -1243,7 +1255,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -1258,7 +1270,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="2"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5">
         <v>6</v>
       </c>
@@ -1273,7 +1285,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5">
         <v>7</v>
       </c>
@@ -1288,7 +1300,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
@@ -1303,7 +1315,7 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="2"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="5">
         <v>9</v>
       </c>
@@ -1318,7 +1330,7 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5">
         <v>10</v>
       </c>
@@ -1333,12 +1345,12 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="2"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="str">
@@ -1348,7 +1360,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5">
         <v>12</v>
       </c>
@@ -1363,7 +1375,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="2"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="5">
         <v>13</v>
       </c>
@@ -1378,7 +1390,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="2"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <v>14</v>
       </c>
@@ -1393,7 +1405,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="2"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="5">
         <v>15</v>
       </c>
@@ -1408,7 +1420,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="2"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5">
         <v>16</v>
       </c>
@@ -1423,7 +1435,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="2"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5">
         <v>17</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5">
         <v>18</v>
       </c>
@@ -1453,7 +1465,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5">
         <v>19</v>
       </c>
@@ -1468,7 +1480,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="2"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5">
         <v>20</v>
       </c>
@@ -1483,7 +1495,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="2"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="6">
         <v>21</v>
       </c>
@@ -1498,8 +1510,8 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>140</v>
+      <c r="B24" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -1515,7 +1527,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="2"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5">
         <v>23</v>
       </c>
@@ -1530,7 +1542,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="2"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5">
         <v>24</v>
       </c>
@@ -1545,7 +1557,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="2"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5">
         <v>25</v>
       </c>
@@ -1560,7 +1572,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5">
         <v>26</v>
       </c>
@@ -1575,7 +1587,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="6">
         <v>27</v>
       </c>
@@ -1590,13 +1602,13 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:7" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="20" t="s">
-        <v>141</v>
+      <c r="B30" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="8">
         <v>28</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="3"/>
@@ -1607,7 +1619,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
@@ -1624,7 +1636,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="6">
         <v>30</v>
       </c>
@@ -1639,8 +1651,8 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
-        <v>142</v>
+      <c r="B33" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -1656,7 +1668,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="6">
         <v>32</v>
       </c>
@@ -1671,8 +1683,8 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
-        <v>143</v>
+      <c r="B35" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -1688,7 +1700,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5">
         <v>34</v>
       </c>
@@ -1703,7 +1715,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="5">
         <v>35</v>
       </c>
@@ -1718,7 +1730,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="5">
         <v>36</v>
       </c>
@@ -1733,7 +1745,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="2"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="5">
         <v>37</v>
       </c>
@@ -1748,7 +1760,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="2"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="5">
         <v>38</v>
       </c>
@@ -1763,7 +1775,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="5">
         <v>39</v>
       </c>
@@ -1778,7 +1790,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="2"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="6">
         <v>40</v>
       </c>
@@ -1793,8 +1805,8 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
-        <v>144</v>
+      <c r="B43" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -1810,7 +1822,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="2"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="5">
         <v>42</v>
       </c>
@@ -1825,7 +1837,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="2"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="5">
         <v>43</v>
       </c>
@@ -1840,7 +1852,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="2"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="6">
         <v>44</v>
       </c>
@@ -1855,8 +1867,8 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
-        <v>145</v>
+      <c r="B47" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -1872,7 +1884,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="2"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="5">
         <v>46</v>
       </c>
@@ -1887,7 +1899,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="6">
         <v>47</v>
       </c>
@@ -1902,13 +1914,13 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="2:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="20" t="s">
-        <v>146</v>
+      <c r="B50" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C50" s="8">
         <v>48</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E50" s="3"/>
@@ -1919,8 +1931,8 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="2" t="s">
-        <v>163</v>
+      <c r="B51" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
@@ -1936,7 +1948,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="2"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="5">
         <v>50</v>
       </c>
@@ -1951,7 +1963,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="5">
         <v>51</v>
       </c>
@@ -1966,7 +1978,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="2"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="5">
         <v>52</v>
       </c>
@@ -1981,7 +1993,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="2"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="6">
         <v>53</v>
       </c>
@@ -1996,8 +2008,8 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
-        <v>164</v>
+      <c r="B56" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -2013,7 +2025,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="2"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="5">
         <v>55</v>
       </c>
@@ -2028,7 +2040,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="2"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="5">
         <v>56</v>
       </c>
@@ -2043,7 +2055,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="2"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="5">
         <v>57</v>
       </c>
@@ -2058,7 +2070,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="2"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="6">
         <v>58</v>
       </c>
@@ -2073,8 +2085,8 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>165</v>
+      <c r="B61" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -2090,12 +2102,12 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="2"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="5">
         <v>60</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="str">
@@ -2105,12 +2117,12 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="2"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="5">
         <v>61</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="str">
@@ -2120,12 +2132,12 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="2"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="5">
         <v>62</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="str">
@@ -2135,12 +2147,12 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="2"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="5">
         <v>63</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="str">
@@ -2150,12 +2162,12 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="2"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="6">
         <v>64</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="str">
@@ -2165,14 +2177,14 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="2" t="s">
-        <v>166</v>
+      <c r="B67" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="str">
@@ -2182,12 +2194,12 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="2"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="5">
         <v>66</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="str">
@@ -2197,12 +2209,12 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="2"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="5">
         <v>67</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="str">
@@ -2212,12 +2224,12 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="2"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="5">
         <v>68</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="str">
@@ -2227,12 +2239,12 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="2"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="5">
         <v>69</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="str">
@@ -2242,12 +2254,12 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="2"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="5">
         <v>70</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="str">
@@ -2257,12 +2269,12 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="2"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="6">
         <v>71</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="str">
@@ -2272,14 +2284,14 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="2:7" ht="64.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="20" t="s">
-        <v>167</v>
+      <c r="B74" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="C74" s="8">
         <v>72</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>74</v>
+      <c r="D74" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="str">
@@ -2289,14 +2301,14 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="2:7" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="2" t="s">
-        <v>168</v>
+      <c r="B75" s="21" t="s">
+        <v>167</v>
       </c>
       <c r="C75" s="10">
         <v>73</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="str">
@@ -2306,12 +2318,12 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="2"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="5">
         <v>74</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="str">
@@ -2321,12 +2333,12 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="2"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="5">
         <v>75</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="str">
@@ -2336,12 +2348,12 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="2"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="5">
         <v>76</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="str">
@@ -2351,12 +2363,12 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="2"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="6">
         <v>77</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="str">
@@ -2366,14 +2378,14 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="2" t="s">
-        <v>147</v>
+      <c r="B80" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="str">
@@ -2383,12 +2395,12 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="2"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="5">
         <v>79</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="str">
@@ -2398,12 +2410,12 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="2"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="5">
         <v>80</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="str">
@@ -2413,12 +2425,12 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="2"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="5">
         <v>81</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="str">
@@ -2428,12 +2440,12 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="2"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="5">
         <v>82</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="str">
@@ -2443,12 +2455,12 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="2"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="5">
         <v>83</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="str">
@@ -2458,12 +2470,12 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="2"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="5">
         <v>84</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="str">
@@ -2473,12 +2485,12 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="2"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="5">
         <v>85</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="str">
@@ -2488,12 +2500,12 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="2"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="5">
         <v>86</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="str">
@@ -2503,12 +2515,12 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="2"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="5">
         <v>87</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="str">
@@ -2518,12 +2530,12 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="2"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="5">
         <v>88</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="str">
@@ -2533,12 +2545,12 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="2"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="5">
         <v>89</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="str">
@@ -2548,12 +2560,12 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="2"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="5">
         <v>90</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="str">
@@ -2563,12 +2575,12 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="2"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="6">
         <v>91</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="str">
@@ -2578,14 +2590,14 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="2" t="s">
-        <v>148</v>
+      <c r="B94" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="str">
@@ -2595,12 +2607,12 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="2"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="5">
         <v>93</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="str">
@@ -2610,12 +2622,12 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="2"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="5">
         <v>94</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3" t="str">
@@ -2625,12 +2637,12 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="2"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="5">
         <v>95</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="str">
@@ -2640,12 +2652,12 @@
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="2"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="5">
         <v>96</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="str">
@@ -2655,12 +2667,12 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="2"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="5">
         <v>97</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="str">
@@ -2670,12 +2682,12 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="2"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="5">
         <v>98</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="str">
@@ -2685,12 +2697,12 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="2"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="6">
         <v>99</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="str">
@@ -2700,14 +2712,14 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="2" t="s">
-        <v>149</v>
+      <c r="B102" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="str">
@@ -2717,12 +2729,12 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="2"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="6">
         <v>101</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="str">
@@ -2732,14 +2744,14 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="2:7" ht="64.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="20" t="s">
-        <v>169</v>
+      <c r="B104" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C104" s="8">
         <v>102</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>103</v>
+      <c r="D104" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3" t="str">
@@ -2749,14 +2761,14 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="2" t="s">
-        <v>150</v>
+      <c r="B105" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="str">
@@ -2766,12 +2778,12 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="2"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="5">
         <v>104</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="str">
@@ -2781,12 +2793,12 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="2"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="6">
         <v>105</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="str">
@@ -2796,14 +2808,14 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="2:7" ht="21" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="21" t="s">
-        <v>151</v>
+      <c r="B108" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="C108" s="1">
         <v>106</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="str">
@@ -2813,12 +2825,12 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="2:7" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="19"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="6">
         <v>107</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="str">
@@ -2828,14 +2840,14 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="2" t="s">
-        <v>152</v>
+      <c r="B110" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="C110" s="1">
         <v>108</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="str">
@@ -2845,12 +2857,12 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B111" s="2"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="5">
         <v>109</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="str">
@@ -2860,12 +2872,12 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B112" s="2"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="5">
         <v>110</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="str">
@@ -2875,12 +2887,12 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B113" s="2"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="5">
         <v>111</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="str">
@@ -2890,12 +2902,12 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B114" s="2"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="5">
         <v>112</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3" t="str">
@@ -2905,12 +2917,12 @@
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="2"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="5">
         <v>113</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="str">
@@ -2920,12 +2932,12 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="2"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="13">
         <v>114</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="str">
@@ -2935,14 +2947,14 @@
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B117" s="2" t="s">
-        <v>153</v>
+      <c r="B117" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="C117" s="1">
         <v>115</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="str">
@@ -2952,12 +2964,12 @@
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="2"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="5">
         <v>116</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3" t="str">
@@ -2967,12 +2979,12 @@
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B119" s="2"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="14">
         <v>117</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="str">
@@ -2982,12 +2994,12 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B120" s="2"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="5">
         <v>118</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3" t="str">
@@ -2997,12 +3009,12 @@
       <c r="G120" s="4"/>
     </row>
     <row r="121" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B121" s="2"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="5">
         <v>119</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3" t="str">
@@ -3012,12 +3024,12 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B122" s="2"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="13">
         <v>120</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="str">
@@ -3027,14 +3039,14 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B123" s="2" t="s">
-        <v>154</v>
+      <c r="B123" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="C123" s="1">
         <v>121</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="str">
@@ -3044,12 +3056,12 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B124" s="2"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="5">
         <v>122</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="str">
@@ -3059,12 +3071,12 @@
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B125" s="2"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="14">
         <v>123</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="str">
@@ -3074,12 +3086,12 @@
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B126" s="2"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="6">
         <v>124</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="str">
@@ -3089,14 +3101,14 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="2" t="s">
-        <v>155</v>
+      <c r="B127" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C127" s="1">
         <v>125</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="str">
@@ -3106,12 +3118,12 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B128" s="2"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="14">
         <v>126</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="str">
@@ -3121,12 +3133,12 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B129" s="2"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="6">
         <v>127</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="str">
@@ -3136,14 +3148,14 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B130" s="2" t="s">
-        <v>128</v>
+      <c r="B130" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="C130" s="1">
         <v>128</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="str">
@@ -3153,12 +3165,12 @@
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B131" s="2"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="13">
         <v>129</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="str">
@@ -3168,14 +3180,14 @@
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B132" s="2" t="s">
-        <v>156</v>
+      <c r="B132" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C132" s="1">
         <v>130</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="str">
@@ -3185,12 +3197,12 @@
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="2"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="5">
         <v>131</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3" t="str">
@@ -3200,12 +3212,12 @@
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B134" s="2"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="13">
         <v>132</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3" t="str">
@@ -3215,14 +3227,14 @@
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B135" s="2" t="s">
-        <v>157</v>
+      <c r="B135" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C135" s="1">
         <v>133</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3" t="str">
@@ -3232,12 +3244,12 @@
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B136" s="2"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="5">
         <v>134</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3" t="str">
@@ -3247,12 +3259,12 @@
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B137" s="2"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="6">
         <v>135</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15" t="str">
@@ -3264,22 +3276,6 @@
     <row r="138" spans="2:7" ht="24" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B80:B93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B105:B107"/>
     <mergeCell ref="B135:B137"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="B117:B122"/>
@@ -3288,6 +3284,22 @@
     <mergeCell ref="B130:B131"/>
     <mergeCell ref="B132:B134"/>
     <mergeCell ref="B110:B116"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B80:B93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/OTHER FILES/project table details.xlsx
+++ b/OTHER FILES/project table details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peeyush\projects\schemes\OTHER FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7EA456-3359-48C4-B1EC-7C9062F91C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875174CA-ADFC-4EEC-B063-A46CCF96DD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89D8D5EB-3FDE-47B1-847B-3BE9DE8916EE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
   <si>
     <t>entry  user</t>
   </si>
@@ -557,6 +557,106 @@
   </si>
   <si>
     <t>Adoption status of TB patients by Nikshay Mitra Sep 2022 to May 2023+D62</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DistrictName, Percentage</t>
+  </si>
+  <si>
+    <t>DistrictName,VHSND,UHSND</t>
+  </si>
+  <si>
+    <t>DistrictName, PW Registered,PW Registered in 1st Trimester,% of total PW registered ,
+High risk PW Registered,% HRP registered against total PW registered,
+Severe Anaemic PW Registered,Maternal Death</t>
+  </si>
+  <si>
+    <t>Criteria,Numbers,Percentage</t>
+  </si>
+  <si>
+    <t>DistrictName,High risk PW Registered</t>
+  </si>
+  <si>
+    <t>Facilities,Designated ,Functional,Functional as per conditionality DH &gt; 10 C- Section 
+per month &amp; CH &amp; CHC &gt; 5 C- Section per month</t>
+  </si>
+  <si>
+    <t>Facilities,Number ,Functional,Remarks</t>
+  </si>
+  <si>
+    <t>DistrictName, Total Death,Review by CMHO,Review by DM</t>
+  </si>
+  <si>
+    <t>Name of District ,Projected Population, Target for blood collection (about 1% of popn
+ requires blood),Target for 02 months,Total Collection in Govt Blood Banks,Total 
+Collection in Private Blood Banks, Grand Total Collection ,Percentage collection</t>
+  </si>
+  <si>
+    <t>Name of District,Name of Facility,Transfusion</t>
+  </si>
+  <si>
+    <t>Name of District,Total camp, Camp Collection, Average collection per camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of District, 12 months target, Total Voluntary Collection, Total Replacement 
+Collection, Grand Total Blood Collection, Percentage Collection Against Target  </t>
+  </si>
+  <si>
+    <t>District Name,Total , AA, AS, SS, Total Pending Solubility, Daily Follow up Patient (SS), Total Hydroxiurea given to new patients, Total Hydroxiure a given to old patients Total 
+CBC, Total BT</t>
+  </si>
+  <si>
+    <t>DistrictName, Total numberof pregnant women Received Antenatal care under PMSMA, 
+ Total HRP identified, % HRP identified (against ELA ), Total Managed or referred ,
+% managed &amp; reffered, Difference neither managed nor reffered against identified</t>
+  </si>
+  <si>
+    <t>DistrictName, Percentage(LAST YEAR), Percntage(two months )</t>
+  </si>
+  <si>
+    <t>District / Unit Name, Beds, Admissions, Bed Occupancy Rate (%), Discharge(%),
+LAMA(%), Refer (%), Death (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of Students Screened against target (School + AWC) </t>
+  </si>
+  <si>
+    <t>% of Students Awc Screened, % of AWC Visited</t>
+  </si>
+  <si>
+    <t>% of Children Treated in all Categories out of Identified (ABCDE)</t>
+  </si>
+  <si>
+    <t>DistrictName, Male sterilization, Female sterilization</t>
+  </si>
+  <si>
+    <t>DistrictName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DistrictName, PPIUCD, ANTARA </t>
+  </si>
+  <si>
+    <t>DistrictName, PPIUCD Accep. %(last year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DistrictName,% Injec. MPA (last F.Y.) </t>
+  </si>
+  <si>
+    <t>DistrictName,Percentage</t>
+  </si>
+  <si>
+    <t>DistrictName,(NFHS IV Percentage, NFHS V Percentage)</t>
+  </si>
+  <si>
+    <t>DistrictName,Numbers</t>
+  </si>
+  <si>
+    <t>DistrictName,New Cases</t>
   </si>
 </sst>
 </file>
@@ -611,7 +711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -772,21 +872,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -820,21 +942,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,52 +1279,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907CCAE1-8B8A-49B6-B7FE-6B0450647F01}">
-  <dimension ref="B2:G138"/>
+  <dimension ref="B2:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="24"/>
-    <col min="2" max="2" width="32.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="16" style="24" customWidth="1"/>
-    <col min="4" max="4" width="117.5546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="19"/>
+    <col min="2" max="2" width="32.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16" style="19" customWidth="1"/>
+    <col min="4" max="4" width="117.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="121.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="H2" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1205,14 +1338,17 @@
         <f>IF(E3="yes","no","yes")</f>
         <v>no</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21"/>
-      <c r="C4" s="5">
+      <c r="G3" s="3"/>
+      <c r="H3" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="25"/>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1222,14 +1358,17 @@
         <f t="shared" ref="F4:F67" si="0">IF(E4="yes","no","yes")</f>
         <v>no</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="21"/>
-      <c r="C5" s="5">
+      <c r="G4" s="3"/>
+      <c r="H4" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="25"/>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3"/>
@@ -1237,14 +1376,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="21"/>
-      <c r="C6" s="5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="25"/>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
@@ -1252,14 +1394,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="21"/>
-      <c r="C7" s="5">
+      <c r="G6" s="3"/>
+      <c r="H6" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="25"/>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3"/>
@@ -1267,14 +1412,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="21"/>
-      <c r="C8" s="5">
+      <c r="G7" s="3"/>
+      <c r="H7" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="25"/>
+      <c r="C8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3"/>
@@ -1282,14 +1430,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="21"/>
-      <c r="C9" s="5">
+      <c r="G8" s="3"/>
+      <c r="H8" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="25"/>
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3"/>
@@ -1297,14 +1448,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="5">
+      <c r="G9" s="3"/>
+      <c r="H9" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="25"/>
+      <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="3"/>
@@ -1312,14 +1466,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="21"/>
-      <c r="C11" s="5">
+      <c r="G10" s="3"/>
+      <c r="H10" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="25"/>
+      <c r="C11" s="4">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3"/>
@@ -1327,14 +1484,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="21"/>
-      <c r="C12" s="5">
+      <c r="G11" s="3"/>
+      <c r="H11" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="25"/>
+      <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3"/>
@@ -1342,14 +1502,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="21"/>
-      <c r="C13" s="5">
+      <c r="G12" s="3"/>
+      <c r="H12" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="25"/>
+      <c r="C13" s="4">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>161</v>
       </c>
       <c r="E13" s="3"/>
@@ -1357,14 +1520,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="5">
+      <c r="G13" s="3"/>
+      <c r="H13" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="4">
         <v>12</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3"/>
@@ -1372,14 +1538,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21"/>
-      <c r="C15" s="5">
+      <c r="G14" s="3"/>
+      <c r="H14" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="25"/>
+      <c r="C15" s="4">
         <v>13</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3"/>
@@ -1387,14 +1556,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="21"/>
-      <c r="C16" s="5">
+      <c r="G15" s="3"/>
+      <c r="H15" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="4">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3"/>
@@ -1402,14 +1574,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="21"/>
-      <c r="C17" s="5">
+      <c r="G16" s="3"/>
+      <c r="H16" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="4">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="3"/>
@@ -1417,14 +1592,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="21"/>
-      <c r="C18" s="5">
+      <c r="G17" s="3"/>
+      <c r="H17" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="25"/>
+      <c r="C18" s="4">
         <v>16</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3"/>
@@ -1432,14 +1610,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
-      <c r="C19" s="5">
+      <c r="G18" s="3"/>
+      <c r="H18" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="25"/>
+      <c r="C19" s="4">
         <v>17</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3"/>
@@ -1447,14 +1628,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
-      <c r="C20" s="5">
+      <c r="G19" s="3"/>
+      <c r="H19" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="25"/>
+      <c r="C20" s="4">
         <v>18</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="3"/>
@@ -1462,14 +1646,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="21"/>
-      <c r="C21" s="5">
+      <c r="G20" s="3"/>
+      <c r="H20" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="25"/>
+      <c r="C21" s="4">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="3"/>
@@ -1477,14 +1664,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="21"/>
-      <c r="C22" s="5">
+      <c r="G21" s="3"/>
+      <c r="H21" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="25"/>
+      <c r="C22" s="4">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="3"/>
@@ -1492,14 +1682,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21"/>
-      <c r="C23" s="6">
+      <c r="G22" s="3"/>
+      <c r="H22" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="25"/>
+      <c r="C23" s="5">
         <v>21</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="3"/>
@@ -1507,16 +1700,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="21" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="25" t="s">
         <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="3"/>
@@ -1524,14 +1720,15 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="21"/>
-      <c r="C25" s="5">
+      <c r="G24" s="3"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="25"/>
+      <c r="C25" s="4">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="3"/>
@@ -1539,14 +1736,15 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="21"/>
-      <c r="C26" s="5">
+      <c r="G25" s="3"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="25"/>
+      <c r="C26" s="4">
         <v>24</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="3"/>
@@ -1554,14 +1752,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21"/>
-      <c r="C27" s="5">
+      <c r="G26" s="3"/>
+      <c r="H26" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="25"/>
+      <c r="C27" s="4">
         <v>25</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="3"/>
@@ -1569,14 +1770,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="21"/>
-      <c r="C28" s="5">
+      <c r="G27" s="3"/>
+      <c r="H27" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="25"/>
+      <c r="C28" s="4">
         <v>26</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="3"/>
@@ -1584,14 +1788,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="21"/>
-      <c r="C29" s="6">
+      <c r="G28" s="3"/>
+      <c r="H28" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="25"/>
+      <c r="C29" s="5">
         <v>27</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="3"/>
@@ -1599,16 +1806,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="3"/>
+      <c r="H29" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <v>28</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="3"/>
@@ -1616,16 +1826,19 @@
         <f>IF(E30="yes","no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="21" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="3"/>
@@ -1633,14 +1846,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="21"/>
-      <c r="C32" s="6">
+      <c r="G31" s="3"/>
+      <c r="H31" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="25"/>
+      <c r="C32" s="5">
         <v>30</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="3"/>
@@ -1648,16 +1864,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="21" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="25" t="s">
         <v>141</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="3"/>
@@ -1665,14 +1884,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="21"/>
-      <c r="C34" s="6">
+      <c r="G33" s="3"/>
+      <c r="H33" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="25"/>
+      <c r="C34" s="5">
         <v>32</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="3"/>
@@ -1680,16 +1902,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="21" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="25" t="s">
         <v>142</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="3"/>
@@ -1697,14 +1922,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="21"/>
-      <c r="C36" s="5">
+      <c r="G35" s="3"/>
+      <c r="H35" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="4">
         <v>34</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="3"/>
@@ -1712,14 +1940,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="21"/>
-      <c r="C37" s="5">
+      <c r="G36" s="3"/>
+      <c r="H36" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="25"/>
+      <c r="C37" s="4">
         <v>35</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="3"/>
@@ -1727,14 +1958,15 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="21"/>
-      <c r="C38" s="5">
+      <c r="G37" s="3"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="25"/>
+      <c r="C38" s="4">
         <v>36</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="3"/>
@@ -1742,14 +1974,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="21"/>
-      <c r="C39" s="5">
+      <c r="G38" s="3"/>
+      <c r="H38" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="25"/>
+      <c r="C39" s="4">
         <v>37</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="3"/>
@@ -1757,14 +1992,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="21"/>
-      <c r="C40" s="5">
+      <c r="G39" s="3"/>
+      <c r="H39" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="25"/>
+      <c r="C40" s="4">
         <v>38</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E40" s="3"/>
@@ -1772,14 +2010,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="21"/>
-      <c r="C41" s="5">
+      <c r="G40" s="3"/>
+      <c r="H40" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="4">
         <v>39</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="3"/>
@@ -1787,14 +2028,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="21"/>
-      <c r="C42" s="6">
+      <c r="G41" s="3"/>
+      <c r="H41" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="25"/>
+      <c r="C42" s="5">
         <v>40</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="3"/>
@@ -1802,16 +2046,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="21" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="25" t="s">
         <v>143</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="3"/>
@@ -1819,14 +2064,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="21"/>
-      <c r="C44" s="5">
+      <c r="G43" s="3"/>
+      <c r="H43" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="25"/>
+      <c r="C44" s="4">
         <v>42</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="3"/>
@@ -1834,14 +2082,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="21"/>
-      <c r="C45" s="5">
+      <c r="G44" s="3"/>
+      <c r="H44" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="25"/>
+      <c r="C45" s="4">
         <v>43</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="3"/>
@@ -1849,14 +2100,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="21"/>
-      <c r="C46" s="6">
+      <c r="G45" s="3"/>
+      <c r="H45" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="25"/>
+      <c r="C46" s="5">
         <v>44</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E46" s="3"/>
@@ -1864,16 +2118,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="21" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="25" t="s">
         <v>144</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E47" s="3"/>
@@ -1881,14 +2136,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="21"/>
-      <c r="C48" s="5">
+      <c r="G47" s="3"/>
+      <c r="H47" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="25"/>
+      <c r="C48" s="4">
         <v>46</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E48" s="3"/>
@@ -1896,14 +2154,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="21"/>
-      <c r="C49" s="6">
+      <c r="G48" s="3"/>
+      <c r="H48" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="25"/>
+      <c r="C49" s="5">
         <v>47</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E49" s="3"/>
@@ -1911,33 +2172,39 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="2:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="3"/>
+      <c r="H49" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <v>48</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="F50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="21" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="25" t="s">
         <v>162</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="3"/>
@@ -1945,14 +2212,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="21"/>
-      <c r="C52" s="5">
+      <c r="G51" s="3"/>
+      <c r="H51" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="25"/>
+      <c r="C52" s="4">
         <v>50</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E52" s="3"/>
@@ -1960,14 +2230,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="21"/>
-      <c r="C53" s="5">
+      <c r="G52" s="3"/>
+      <c r="H52" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="25"/>
+      <c r="C53" s="4">
         <v>51</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E53" s="3"/>
@@ -1975,14 +2248,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="21"/>
-      <c r="C54" s="5">
+      <c r="G53" s="3"/>
+      <c r="H53" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="25"/>
+      <c r="C54" s="4">
         <v>52</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E54" s="3"/>
@@ -1990,14 +2266,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="21"/>
-      <c r="C55" s="6">
+      <c r="G54" s="3"/>
+      <c r="H54" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="25"/>
+      <c r="C55" s="5">
         <v>53</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E55" s="3"/>
@@ -2005,16 +2284,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="21" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="25" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E56" s="3"/>
@@ -2022,14 +2304,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="21"/>
-      <c r="C57" s="5">
+      <c r="G56" s="3"/>
+      <c r="H56" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="25"/>
+      <c r="C57" s="4">
         <v>55</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E57" s="3"/>
@@ -2037,14 +2322,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="21"/>
-      <c r="C58" s="5">
+      <c r="G57" s="3"/>
+      <c r="H57" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="25"/>
+      <c r="C58" s="4">
         <v>56</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E58" s="3"/>
@@ -2052,14 +2340,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="21"/>
-      <c r="C59" s="5">
+      <c r="G58" s="3"/>
+      <c r="H58" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="25"/>
+      <c r="C59" s="4">
         <v>57</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E59" s="3"/>
@@ -2067,14 +2358,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="21"/>
-      <c r="C60" s="6">
+      <c r="G59" s="3"/>
+      <c r="H59" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="25"/>
+      <c r="C60" s="5">
         <v>58</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="3"/>
@@ -2082,16 +2376,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="21" t="s">
+      <c r="G60" s="3"/>
+      <c r="H60" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="25" t="s">
         <v>164</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E61" s="3"/>
@@ -2099,14 +2396,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="21"/>
-      <c r="C62" s="5">
+      <c r="G61" s="3"/>
+      <c r="H61" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="25"/>
+      <c r="C62" s="4">
         <v>60</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>169</v>
       </c>
       <c r="E62" s="3"/>
@@ -2114,14 +2414,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="21"/>
-      <c r="C63" s="5">
+      <c r="G62" s="3"/>
+      <c r="H62" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="25"/>
+      <c r="C63" s="4">
         <v>61</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E63" s="3"/>
@@ -2129,14 +2432,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="21"/>
-      <c r="C64" s="5">
+      <c r="G63" s="3"/>
+      <c r="H63" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="25"/>
+      <c r="C64" s="4">
         <v>62</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E64" s="3"/>
@@ -2144,14 +2450,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="21"/>
-      <c r="C65" s="5">
+      <c r="G64" s="3"/>
+      <c r="H64" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="25"/>
+      <c r="C65" s="4">
         <v>63</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E65" s="3"/>
@@ -2159,14 +2468,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="21"/>
-      <c r="C66" s="6">
+      <c r="G65" s="3"/>
+      <c r="H65" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="25"/>
+      <c r="C66" s="5">
         <v>64</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="3"/>
@@ -2174,16 +2486,19 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="21" t="s">
+      <c r="G66" s="3"/>
+      <c r="H66" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E67" s="3"/>
@@ -2191,14 +2506,17 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="21"/>
-      <c r="C68" s="5">
+      <c r="G67" s="3"/>
+      <c r="H67" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="25"/>
+      <c r="C68" s="4">
         <v>66</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E68" s="3"/>
@@ -2206,14 +2524,17 @@
         <f t="shared" ref="F68:F131" si="1">IF(E68="yes","no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="21"/>
-      <c r="C69" s="5">
+      <c r="G68" s="3"/>
+      <c r="H68" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="25"/>
+      <c r="C69" s="4">
         <v>67</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="3"/>
@@ -2221,14 +2542,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="21"/>
-      <c r="C70" s="5">
+      <c r="G69" s="3"/>
+      <c r="H69" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="25"/>
+      <c r="C70" s="4">
         <v>68</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E70" s="3"/>
@@ -2236,14 +2560,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="21"/>
-      <c r="C71" s="5">
+      <c r="G70" s="3"/>
+      <c r="H70" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="25"/>
+      <c r="C71" s="4">
         <v>69</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E71" s="3"/>
@@ -2251,14 +2578,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="21"/>
-      <c r="C72" s="5">
+      <c r="G71" s="3"/>
+      <c r="H71" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="25"/>
+      <c r="C72" s="4">
         <v>70</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="3"/>
@@ -2266,14 +2596,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="21"/>
-      <c r="C73" s="6">
+      <c r="G72" s="3"/>
+      <c r="H72" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="25"/>
+      <c r="C73" s="5">
         <v>71</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E73" s="3"/>
@@ -2281,16 +2614,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="2:7" ht="64.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G73" s="3"/>
+      <c r="H73" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="64.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B74" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="6">
         <v>72</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="18" t="s">
         <v>73</v>
       </c>
       <c r="E74" s="3"/>
@@ -2298,16 +2634,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="2:7" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="21" t="s">
+      <c r="G74" s="3"/>
+      <c r="H74" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="62.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="8">
         <v>73</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E75" s="3"/>
@@ -2315,14 +2654,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="21"/>
-      <c r="C76" s="5">
+      <c r="G75" s="3"/>
+      <c r="H75" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="25"/>
+      <c r="C76" s="4">
         <v>74</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E76" s="3"/>
@@ -2330,14 +2672,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="21"/>
-      <c r="C77" s="5">
+      <c r="G76" s="3"/>
+      <c r="H76" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="25"/>
+      <c r="C77" s="4">
         <v>75</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="3"/>
@@ -2345,14 +2690,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="21"/>
-      <c r="C78" s="5">
+      <c r="G77" s="3"/>
+      <c r="H77" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="25"/>
+      <c r="C78" s="4">
         <v>76</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="3"/>
@@ -2360,14 +2708,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="21"/>
-      <c r="C79" s="6">
+      <c r="G78" s="3"/>
+      <c r="H78" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="25"/>
+      <c r="C79" s="5">
         <v>77</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E79" s="3"/>
@@ -2375,16 +2726,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="21" t="s">
+      <c r="G79" s="3"/>
+      <c r="H79" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="25" t="s">
         <v>146</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E80" s="3"/>
@@ -2392,14 +2746,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="21"/>
-      <c r="C81" s="5">
+      <c r="G80" s="3"/>
+      <c r="H80" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="25"/>
+      <c r="C81" s="4">
         <v>79</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E81" s="3"/>
@@ -2407,14 +2764,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="21"/>
-      <c r="C82" s="5">
+      <c r="G81" s="3"/>
+      <c r="H81" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="25"/>
+      <c r="C82" s="4">
         <v>80</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E82" s="3"/>
@@ -2422,14 +2782,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="21"/>
-      <c r="C83" s="5">
+      <c r="G82" s="3"/>
+      <c r="H82" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="25"/>
+      <c r="C83" s="4">
         <v>81</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E83" s="3"/>
@@ -2437,14 +2800,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="21"/>
-      <c r="C84" s="5">
+      <c r="G83" s="3"/>
+      <c r="H83" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="25"/>
+      <c r="C84" s="4">
         <v>82</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E84" s="3"/>
@@ -2452,14 +2818,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="21"/>
-      <c r="C85" s="5">
+      <c r="G84" s="3"/>
+      <c r="H84" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="25"/>
+      <c r="C85" s="4">
         <v>83</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E85" s="3"/>
@@ -2467,14 +2836,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="21"/>
-      <c r="C86" s="5">
+      <c r="G85" s="3"/>
+      <c r="H85" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="25"/>
+      <c r="C86" s="4">
         <v>84</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="3"/>
@@ -2482,14 +2854,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="21"/>
-      <c r="C87" s="5">
+      <c r="G86" s="3"/>
+      <c r="H86" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="25"/>
+      <c r="C87" s="4">
         <v>85</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E87" s="3"/>
@@ -2497,14 +2872,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="21"/>
-      <c r="C88" s="5">
+      <c r="G87" s="3"/>
+      <c r="H87" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="25"/>
+      <c r="C88" s="4">
         <v>86</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E88" s="3"/>
@@ -2512,14 +2890,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="21"/>
-      <c r="C89" s="5">
+      <c r="G88" s="3"/>
+      <c r="H88" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="25"/>
+      <c r="C89" s="4">
         <v>87</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E89" s="3"/>
@@ -2527,14 +2908,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="21"/>
-      <c r="C90" s="5">
+      <c r="G89" s="3"/>
+      <c r="H89" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="25"/>
+      <c r="C90" s="4">
         <v>88</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E90" s="3"/>
@@ -2542,14 +2926,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="21"/>
-      <c r="C91" s="5">
+      <c r="G90" s="3"/>
+      <c r="H90" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="25"/>
+      <c r="C91" s="4">
         <v>89</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E91" s="3"/>
@@ -2557,14 +2944,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="21"/>
-      <c r="C92" s="5">
+      <c r="G91" s="3"/>
+      <c r="H91" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="25"/>
+      <c r="C92" s="4">
         <v>90</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E92" s="3"/>
@@ -2572,14 +2962,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="21"/>
-      <c r="C93" s="6">
+      <c r="G92" s="3"/>
+      <c r="H92" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="25"/>
+      <c r="C93" s="5">
         <v>91</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="10" t="s">
         <v>91</v>
       </c>
       <c r="E93" s="3"/>
@@ -2587,16 +2980,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="21" t="s">
+      <c r="G93" s="3"/>
+      <c r="H93" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E94" s="3"/>
@@ -2604,14 +3000,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="21"/>
-      <c r="C95" s="5">
+      <c r="G94" s="3"/>
+      <c r="H94" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="25"/>
+      <c r="C95" s="4">
         <v>93</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E95" s="3"/>
@@ -2619,14 +3018,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="21"/>
-      <c r="C96" s="5">
+      <c r="G95" s="3"/>
+      <c r="H95" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="25"/>
+      <c r="C96" s="4">
         <v>94</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E96" s="3"/>
@@ -2634,14 +3036,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="21"/>
-      <c r="C97" s="5">
+      <c r="G96" s="3"/>
+      <c r="H96" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="25"/>
+      <c r="C97" s="4">
         <v>95</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E97" s="3"/>
@@ -2649,14 +3054,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="21"/>
-      <c r="C98" s="5">
+      <c r="G97" s="3"/>
+      <c r="H97" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="25"/>
+      <c r="C98" s="4">
         <v>96</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="7" t="s">
         <v>96</v>
       </c>
       <c r="E98" s="3"/>
@@ -2664,14 +3072,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="21"/>
-      <c r="C99" s="5">
+      <c r="G98" s="3"/>
+      <c r="H98" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="25"/>
+      <c r="C99" s="4">
         <v>97</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="7" t="s">
         <v>97</v>
       </c>
       <c r="E99" s="3"/>
@@ -2679,14 +3090,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="21"/>
-      <c r="C100" s="5">
+      <c r="G99" s="3"/>
+      <c r="H99" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="25"/>
+      <c r="C100" s="4">
         <v>98</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E100" s="3"/>
@@ -2694,14 +3108,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="21"/>
-      <c r="C101" s="6">
+      <c r="G100" s="3"/>
+      <c r="H100" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B101" s="25"/>
+      <c r="C101" s="5">
         <v>99</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E101" s="3"/>
@@ -2709,16 +3126,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="21" t="s">
+      <c r="G101" s="3"/>
+      <c r="H101" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="25" t="s">
         <v>148</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E102" s="3"/>
@@ -2726,14 +3146,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="21"/>
-      <c r="C103" s="6">
+      <c r="G102" s="3"/>
+      <c r="H102" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="25"/>
+      <c r="C103" s="5">
         <v>101</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="10" t="s">
         <v>101</v>
       </c>
       <c r="E103" s="3"/>
@@ -2741,16 +3164,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="2:7" ht="64.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G103" s="3"/>
+      <c r="H103" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="64.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B104" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="6">
         <v>102</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E104" s="3"/>
@@ -2758,16 +3184,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="21" t="s">
+      <c r="G104" s="3"/>
+      <c r="H104" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="25" t="s">
         <v>149</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E105" s="3"/>
@@ -2775,14 +3204,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="21"/>
-      <c r="C106" s="5">
+      <c r="G105" s="3"/>
+      <c r="H105" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="25"/>
+      <c r="C106" s="4">
         <v>104</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E106" s="3"/>
@@ -2790,14 +3222,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="21"/>
-      <c r="C107" s="6">
+      <c r="G106" s="3"/>
+      <c r="H106" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="25"/>
+      <c r="C107" s="5">
         <v>105</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="10" t="s">
         <v>105</v>
       </c>
       <c r="E107" s="3"/>
@@ -2805,16 +3240,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="2:7" ht="21" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="23" t="s">
+      <c r="G107" s="3"/>
+      <c r="H107" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="21" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="26" t="s">
         <v>150</v>
       </c>
       <c r="C108" s="1">
         <v>106</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E108" s="3"/>
@@ -2822,14 +3260,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="2:7" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="22"/>
-      <c r="C109" s="6">
+      <c r="G108" s="3"/>
+      <c r="H108" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="27"/>
+      <c r="C109" s="5">
         <v>107</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E109" s="3"/>
@@ -2837,16 +3278,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="21" t="s">
+      <c r="G109" s="3"/>
+      <c r="H109" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="25" t="s">
         <v>151</v>
       </c>
       <c r="C110" s="1">
         <v>108</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E110" s="3"/>
@@ -2854,14 +3298,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B111" s="21"/>
-      <c r="C111" s="5">
+      <c r="G110" s="3"/>
+      <c r="H110" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="25"/>
+      <c r="C111" s="4">
         <v>109</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E111" s="3"/>
@@ -2869,14 +3316,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B112" s="21"/>
-      <c r="C112" s="5">
+      <c r="G111" s="3"/>
+      <c r="H111" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B112" s="25"/>
+      <c r="C112" s="4">
         <v>110</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E112" s="3"/>
@@ -2884,14 +3334,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B113" s="21"/>
-      <c r="C113" s="5">
+      <c r="G112" s="3"/>
+      <c r="H112" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="25"/>
+      <c r="C113" s="4">
         <v>111</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E113" s="3"/>
@@ -2899,14 +3352,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B114" s="21"/>
-      <c r="C114" s="5">
+      <c r="G113" s="3"/>
+      <c r="H113" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="25"/>
+      <c r="C114" s="4">
         <v>112</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E114" s="3"/>
@@ -2914,14 +3370,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="21"/>
-      <c r="C115" s="5">
+      <c r="G114" s="3"/>
+      <c r="H114" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="25"/>
+      <c r="C115" s="4">
         <v>113</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E115" s="3"/>
@@ -2929,14 +3388,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B116" s="21"/>
-      <c r="C116" s="13">
+      <c r="G115" s="3"/>
+      <c r="H115" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B116" s="25"/>
+      <c r="C116" s="11">
         <v>114</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E116" s="3"/>
@@ -2944,16 +3406,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B117" s="21" t="s">
+      <c r="G116" s="3"/>
+      <c r="H116" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="25" t="s">
         <v>152</v>
       </c>
       <c r="C117" s="1">
         <v>115</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E117" s="3"/>
@@ -2961,14 +3426,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B118" s="21"/>
-      <c r="C118" s="5">
+      <c r="G117" s="3"/>
+      <c r="H117" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="25"/>
+      <c r="C118" s="4">
         <v>116</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E118" s="3"/>
@@ -2976,14 +3444,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B119" s="21"/>
-      <c r="C119" s="14">
+      <c r="G118" s="3"/>
+      <c r="H118" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B119" s="25"/>
+      <c r="C119" s="12">
         <v>117</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E119" s="3"/>
@@ -2991,14 +3462,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B120" s="21"/>
-      <c r="C120" s="5">
+      <c r="G119" s="3"/>
+      <c r="H119" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="25"/>
+      <c r="C120" s="4">
         <v>118</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E120" s="3"/>
@@ -3006,14 +3480,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B121" s="21"/>
-      <c r="C121" s="5">
+      <c r="G120" s="3"/>
+      <c r="H120" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="25"/>
+      <c r="C121" s="4">
         <v>119</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E121" s="3"/>
@@ -3021,14 +3498,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B122" s="21"/>
-      <c r="C122" s="13">
+      <c r="G121" s="3"/>
+      <c r="H121" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B122" s="25"/>
+      <c r="C122" s="11">
         <v>120</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E122" s="3"/>
@@ -3036,16 +3516,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B123" s="21" t="s">
+      <c r="G122" s="3"/>
+      <c r="H122" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="25" t="s">
         <v>153</v>
       </c>
       <c r="C123" s="1">
         <v>121</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E123" s="3"/>
@@ -3053,14 +3536,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B124" s="21"/>
-      <c r="C124" s="5">
+      <c r="G123" s="3"/>
+      <c r="H123" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B124" s="25"/>
+      <c r="C124" s="4">
         <v>122</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E124" s="3"/>
@@ -3068,14 +3554,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B125" s="21"/>
-      <c r="C125" s="14">
+      <c r="G124" s="3"/>
+      <c r="H124" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="25"/>
+      <c r="C125" s="12">
         <v>123</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E125" s="3"/>
@@ -3083,14 +3572,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B126" s="21"/>
-      <c r="C126" s="6">
+      <c r="G125" s="3"/>
+      <c r="H125" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="25"/>
+      <c r="C126" s="5">
         <v>124</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="10" t="s">
         <v>123</v>
       </c>
       <c r="E126" s="3"/>
@@ -3098,16 +3590,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="21" t="s">
+      <c r="G126" s="3"/>
+      <c r="H126" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="25" t="s">
         <v>154</v>
       </c>
       <c r="C127" s="1">
         <v>125</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E127" s="3"/>
@@ -3115,14 +3610,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B128" s="21"/>
-      <c r="C128" s="14">
+      <c r="G127" s="3"/>
+      <c r="H127" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="25"/>
+      <c r="C128" s="12">
         <v>126</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E128" s="3"/>
@@ -3130,14 +3628,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B129" s="21"/>
-      <c r="C129" s="6">
+      <c r="G128" s="3"/>
+      <c r="H128" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B129" s="25"/>
+      <c r="C129" s="5">
         <v>127</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E129" s="3"/>
@@ -3145,16 +3646,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B130" s="21" t="s">
+      <c r="G129" s="3"/>
+      <c r="H129" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="25" t="s">
         <v>127</v>
       </c>
       <c r="C130" s="1">
         <v>128</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="D130" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E130" s="3"/>
@@ -3162,14 +3666,17 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B131" s="21"/>
-      <c r="C131" s="13">
+      <c r="G130" s="3"/>
+      <c r="H130" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="25"/>
+      <c r="C131" s="11">
         <v>129</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E131" s="3"/>
@@ -3177,16 +3684,19 @@
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="2:7" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B132" s="21" t="s">
+      <c r="G131" s="3"/>
+      <c r="H131" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="25" t="s">
         <v>155</v>
       </c>
       <c r="C132" s="1">
         <v>130</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E132" s="3"/>
@@ -3194,14 +3704,17 @@
         <f t="shared" ref="F132:F137" si="2">IF(E132="yes","no","yes")</f>
         <v>yes</v>
       </c>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="21"/>
-      <c r="C133" s="5">
+      <c r="G132" s="3"/>
+      <c r="H132" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="25"/>
+      <c r="C133" s="4">
         <v>131</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E133" s="3"/>
@@ -3209,14 +3722,17 @@
         <f t="shared" si="2"/>
         <v>yes</v>
       </c>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B134" s="21"/>
-      <c r="C134" s="13">
+      <c r="G133" s="3"/>
+      <c r="H133" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="25"/>
+      <c r="C134" s="11">
         <v>132</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="10" t="s">
         <v>132</v>
       </c>
       <c r="E134" s="3"/>
@@ -3224,16 +3740,19 @@
         <f t="shared" si="2"/>
         <v>yes</v>
       </c>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B135" s="21" t="s">
+      <c r="G134" s="3"/>
+      <c r="H134" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B135" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C135" s="1">
         <v>133</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E135" s="3"/>
@@ -3241,14 +3760,17 @@
         <f t="shared" si="2"/>
         <v>yes</v>
       </c>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B136" s="21"/>
-      <c r="C136" s="5">
+      <c r="G135" s="3"/>
+      <c r="H135" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B136" s="25"/>
+      <c r="C136" s="4">
         <v>134</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E136" s="3"/>
@@ -3256,26 +3778,48 @@
         <f t="shared" si="2"/>
         <v>yes</v>
       </c>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="2:7" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B137" s="21"/>
-      <c r="C137" s="6">
+      <c r="G136" s="3"/>
+      <c r="H136" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="25"/>
+      <c r="C137" s="5">
         <v>135</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15" t="str">
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="str">
         <f t="shared" si="2"/>
         <v>yes</v>
       </c>
-      <c r="G137" s="7"/>
-    </row>
-    <row r="138" spans="2:7" ht="24" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="24" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="B80:B93"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B105:B107"/>
     <mergeCell ref="B135:B137"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="B117:B122"/>
@@ -3284,22 +3828,6 @@
     <mergeCell ref="B130:B131"/>
     <mergeCell ref="B132:B134"/>
     <mergeCell ref="B110:B116"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="B80:B93"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
